--- a/biology/Zoologie/The_Global_Family/The_Global_Family.xlsx
+++ b/biology/Zoologie/The_Global_Family/The_Global_Family.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Global Family est une série documentaire créée en 1989 et produite par NHK Enterprises et TVOntario. En France, la série fut diffusée sur La Cinquième dans le cadre du programme Le Monde des animaux. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série s'intéresse au monde animal et la nature qui les côtoies. Chaque épisode, fait un gros plan sur une espèce animale, démontrant ses caractéristiques, son mode de vie et de son environnement.   
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1991
-L'éléphant d'Afrique en péril
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'éléphant d'Afrique en péril
 Lamantin, petite sirène de la Floride
 Le castor écologique
 Les chiens de prairie
@@ -564,9 +583,43 @@
 La planète des insectes
 Le calao bicorne
 Le dernier voyage du saumon
-En migration avec les grues
-1992
-La chouette des terriers
+En migration avec les grues</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Global_Family</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Global_Family</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La chouette des terriers
 Les oiseaux d'Australie
 La vie du corail
 Les lapins d'Australie
@@ -581,9 +634,43 @@
 Le dragon de Komodo
 Le raton laveur
 La cigale d'Amérique, 17 ans pour naître
-Les oiseaux de la baie de Tokyo
-1993
-Le jardin des grizzlis
+Les oiseaux de la baie de Tokyo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Global_Family</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Global_Family</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le jardin des grizzlis
 La baleine franche
 Les puffins, oiseaux sacrés au Japon
 Les orangs-outans
@@ -595,9 +682,43 @@
 Le balbuzard pêcheur
 Le faucon pèlerin
 L'hiver de l'aigle royal
-La reproduction des libellules
-1994
-Le léopard de Chine
+La reproduction des libellules</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Global_Family</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Global_Family</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le léopard de Chine
 Le tigre du Bengale
 Les loups de Mongolie
 La chouette lapone
@@ -612,9 +733,43 @@
 La baie de Fundy
 Israël et sa faune d'antan
 Le narval et le béluga
-Le hibou pêcheur
-1996
-Cichilides du lac Tanganika
+Le hibou pêcheur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Global_Family</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Global_Family</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cichilides du lac Tanganika
 Oiseaux jardiniers d'Australie
 Le beau Danube bleu
 L'oiseau de nulle part
@@ -631,9 +786,43 @@
 Les molothres des rocheuses
 Les esprits de l'île de la princesse
 L'archipel hawaïen du Pacifique
-Gibbons, des acrobates sans filet
-1997
-La confrérie des chacals
+Gibbons, des acrobates sans filet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Global_Family</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Global_Family</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La confrérie des chacals
 Les îles aux 200 000 pingouins
 La faune inconnue d'Australie
 La survie des éléphants d'Afrique
@@ -645,16 +834,50 @@
 Quand s'envolent les grues
 Baykal, la perle de Sibérie
 Le gardien des ours
-Les pingouins de Nouvelle-Zélande[1]
+Les pingouins de Nouvelle-Zélande
 Les macaques des Célèbes
 Les écureuils d'Hokkaido
 Les mystérieux éléphants de Namibie
 Les fantômes de Madagacar
 Balkahash, une oasis dans le désert
 Les géants de l'Arctique
-Les singes des neiges du Japon
-1998
-Les derniers lions d'Asie
+Les singes des neiges du Japon</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Global_Family</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Global_Family</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les derniers lions d'Asie
 Les loups de Yellowstone
 La salamandre géante
 Le tarsier, chasseur nocturne de la jungle
@@ -679,31 +902,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>The_Global_Family</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/The_Global_Family</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Auteur : Stuart Beecroft
 Musique : Harry Forbes, Bruce Mitchell
